--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Col1a1-Gp6.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Col1a1-Gp6.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>27.524977</v>
+        <v>23.9754265</v>
       </c>
       <c r="H2">
-        <v>55.049954</v>
+        <v>47.950853</v>
       </c>
       <c r="I2">
-        <v>0.02927501708753065</v>
+        <v>0.02590932378848207</v>
       </c>
       <c r="J2">
-        <v>0.02011213558514335</v>
+        <v>0.01788258088872626</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -567,22 +567,22 @@
         <v>0.113648</v>
       </c>
       <c r="O2">
-        <v>0.9398066602164942</v>
+        <v>0.9919525181111984</v>
       </c>
       <c r="P2">
-        <v>0.9398066602164942</v>
+        <v>0.9919525181111983</v>
       </c>
       <c r="Q2">
-        <v>1.042719528698667</v>
+        <v>0.9082530902906666</v>
       </c>
       <c r="R2">
-        <v>6.256317172192</v>
+        <v>5.449518541743999</v>
       </c>
       <c r="S2">
-        <v>0.02751285603681298</v>
+        <v>0.02570081897454316</v>
       </c>
       <c r="T2">
-        <v>0.01890151897409488</v>
+        <v>0.01773867114289921</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,7 +596,7 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>27.524977</v>
+        <v>23.9754265</v>
       </c>
       <c r="H3">
-        <v>55.049954</v>
+        <v>47.950853</v>
       </c>
       <c r="I3">
-        <v>0.02927501708753065</v>
+        <v>0.02590932378848207</v>
       </c>
       <c r="J3">
-        <v>0.02011213558514335</v>
+        <v>0.01788258088872626</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -623,28 +623,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.002426333333333334</v>
+        <v>0.0003073333333333333</v>
       </c>
       <c r="N3">
-        <v>0.007279000000000001</v>
+        <v>0.000922</v>
       </c>
       <c r="O3">
-        <v>0.06019333978350575</v>
+        <v>0.008047481888801606</v>
       </c>
       <c r="P3">
-        <v>0.06019333978350575</v>
+        <v>0.008047481888801606</v>
       </c>
       <c r="Q3">
-        <v>0.06678476919433335</v>
+        <v>0.007368447744333333</v>
       </c>
       <c r="R3">
-        <v>0.400708615166</v>
+        <v>0.04421068646599999</v>
       </c>
       <c r="S3">
-        <v>0.00176216105071767</v>
+        <v>0.000208504813938906</v>
       </c>
       <c r="T3">
-        <v>0.001210616611048471</v>
+        <v>0.0001439097458270543</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -673,10 +673,10 @@
         <v>2490.47351</v>
       </c>
       <c r="I4">
-        <v>0.8829393337463696</v>
+        <v>0.897119731561083</v>
       </c>
       <c r="J4">
-        <v>0.9098779792682091</v>
+        <v>0.9287862719314923</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -691,10 +691,10 @@
         <v>0.113648</v>
       </c>
       <c r="O4">
-        <v>0.9398066602164942</v>
+        <v>0.9919525181111984</v>
       </c>
       <c r="P4">
-        <v>0.9398066602164942</v>
+        <v>0.9919525181111983</v>
       </c>
       <c r="Q4">
         <v>31.44859260716445</v>
@@ -703,10 +703,10 @@
         <v>283.03733346448</v>
       </c>
       <c r="S4">
-        <v>0.8297922664219521</v>
+        <v>0.8899001767692587</v>
       </c>
       <c r="T4">
-        <v>0.8551093849005882</v>
+        <v>0.921311881229556</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,7 +720,7 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -735,10 +735,10 @@
         <v>2490.47351</v>
       </c>
       <c r="I5">
-        <v>0.8829393337463696</v>
+        <v>0.897119731561083</v>
       </c>
       <c r="J5">
-        <v>0.9098779792682091</v>
+        <v>0.9287862719314923</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -747,28 +747,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.002426333333333334</v>
+        <v>0.0003073333333333333</v>
       </c>
       <c r="N5">
-        <v>0.007279000000000001</v>
+        <v>0.000922</v>
       </c>
       <c r="O5">
-        <v>0.06019333978350575</v>
+        <v>0.008047481888801606</v>
       </c>
       <c r="P5">
-        <v>0.06019333978350575</v>
+        <v>0.008047481888801606</v>
       </c>
       <c r="Q5">
-        <v>2.014239631032222</v>
+        <v>0.2551351751355556</v>
       </c>
       <c r="R5">
-        <v>18.12815667929</v>
+        <v>2.29621657622</v>
       </c>
       <c r="S5">
-        <v>0.05314706732441741</v>
+        <v>0.007219554791824374</v>
       </c>
       <c r="T5">
-        <v>0.05476859436762092</v>
+        <v>0.007474390701936248</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,22 +785,22 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>1.012325</v>
+        <v>0.1360573333333333</v>
       </c>
       <c r="H6">
-        <v>3.036975</v>
+        <v>0.408172</v>
       </c>
       <c r="I6">
-        <v>0.001076688698890992</v>
+        <v>0.0001470319413559032</v>
       </c>
       <c r="J6">
-        <v>0.001109538674068479</v>
+        <v>0.000152221876147087</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -815,22 +815,22 @@
         <v>0.113648</v>
       </c>
       <c r="O6">
-        <v>0.9398066602164942</v>
+        <v>0.9919525181111984</v>
       </c>
       <c r="P6">
-        <v>0.9398066602164942</v>
+        <v>0.9919525181111983</v>
       </c>
       <c r="Q6">
-        <v>0.03834957053333334</v>
+        <v>0.005154214606222222</v>
       </c>
       <c r="R6">
-        <v>0.3451461348000001</v>
+        <v>0.046387931456</v>
       </c>
       <c r="S6">
-        <v>0.001011879210197585</v>
+        <v>0.0001458487044707662</v>
       </c>
       <c r="T6">
-        <v>0.001042751835657334</v>
+        <v>0.0001509968733557139</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,25 +844,25 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>1.012325</v>
+        <v>0.1360573333333333</v>
       </c>
       <c r="H7">
-        <v>3.036975</v>
+        <v>0.408172</v>
       </c>
       <c r="I7">
-        <v>0.001076688698890992</v>
+        <v>0.0001470319413559032</v>
       </c>
       <c r="J7">
-        <v>0.001109538674068479</v>
+        <v>0.000152221876147087</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -871,28 +871,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>0.002426333333333334</v>
+        <v>0.0003073333333333333</v>
       </c>
       <c r="N7">
-        <v>0.007279000000000001</v>
+        <v>0.000922</v>
       </c>
       <c r="O7">
-        <v>0.06019333978350575</v>
+        <v>0.008047481888801606</v>
       </c>
       <c r="P7">
-        <v>0.06019333978350575</v>
+        <v>0.008047481888801606</v>
       </c>
       <c r="Q7">
-        <v>0.002456237891666668</v>
+        <v>4.181495377777778E-05</v>
       </c>
       <c r="R7">
-        <v>0.022106141025</v>
+        <v>0.000376334584</v>
       </c>
       <c r="S7">
-        <v>6.480948869340617E-05</v>
+        <v>1.183236885136971E-06</v>
       </c>
       <c r="T7">
-        <v>6.678683841114438E-05</v>
+        <v>1.225002791373084E-06</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,16 +915,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>55.986019</v>
+        <v>70.673643</v>
       </c>
       <c r="H8">
-        <v>111.972038</v>
+        <v>141.347286</v>
       </c>
       <c r="I8">
-        <v>0.05954561425747298</v>
+        <v>0.07637429514751654</v>
       </c>
       <c r="J8">
-        <v>0.04090824144922671</v>
+        <v>0.05271343713733154</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -939,22 +939,22 @@
         <v>0.113648</v>
       </c>
       <c r="O8">
-        <v>0.9398066602164942</v>
+        <v>0.9919525181111984</v>
       </c>
       <c r="P8">
-        <v>0.9398066602164942</v>
+        <v>0.9919525181111983</v>
       </c>
       <c r="Q8">
-        <v>2.120899695770667</v>
+        <v>2.677306059888</v>
       </c>
       <c r="R8">
-        <v>12.725398174624</v>
+        <v>16.063836359328</v>
       </c>
       <c r="S8">
-        <v>0.05596136486585534</v>
+        <v>0.07575967439054691</v>
       </c>
       <c r="T8">
-        <v>0.03844583777172771</v>
+        <v>0.05228922670667237</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,7 +968,7 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E9">
         <v>2</v>
@@ -977,16 +977,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>55.986019</v>
+        <v>70.673643</v>
       </c>
       <c r="H9">
-        <v>111.972038</v>
+        <v>141.347286</v>
       </c>
       <c r="I9">
-        <v>0.05954561425747298</v>
+        <v>0.07637429514751654</v>
       </c>
       <c r="J9">
-        <v>0.04090824144922671</v>
+        <v>0.05271343713733154</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -995,28 +995,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.002426333333333334</v>
+        <v>0.0003073333333333333</v>
       </c>
       <c r="N9">
-        <v>0.007279000000000001</v>
+        <v>0.000922</v>
       </c>
       <c r="O9">
-        <v>0.06019333978350575</v>
+        <v>0.008047481888801606</v>
       </c>
       <c r="P9">
-        <v>0.06019333978350575</v>
+        <v>0.008047481888801606</v>
       </c>
       <c r="Q9">
-        <v>0.1358407441003334</v>
+        <v>0.021720366282</v>
       </c>
       <c r="R9">
-        <v>0.8150444646020001</v>
+        <v>0.130322197692</v>
       </c>
       <c r="S9">
-        <v>0.003584249391617635</v>
+        <v>0.0006146207569696277</v>
       </c>
       <c r="T9">
-        <v>0.002462403677498997</v>
+        <v>0.0004242104306591575</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1039,16 +1039,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>24.21940733333333</v>
+        <v>0.289655</v>
       </c>
       <c r="H10">
-        <v>72.65822199999999</v>
+        <v>0.868965</v>
       </c>
       <c r="I10">
-        <v>0.02575927905528127</v>
+        <v>0.0003130190481471841</v>
       </c>
       <c r="J10">
-        <v>0.02654519951532467</v>
+        <v>0.0003240679973299332</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -1063,22 +1063,22 @@
         <v>0.113648</v>
       </c>
       <c r="O10">
-        <v>0.9398066602164942</v>
+        <v>0.9919525181111984</v>
       </c>
       <c r="P10">
-        <v>0.9398066602164942</v>
+        <v>0.9919525181111983</v>
       </c>
       <c r="Q10">
-        <v>0.9174957348728889</v>
+        <v>0.01097290381333333</v>
       </c>
       <c r="R10">
-        <v>8.257461613856</v>
+        <v>0.09875613431999999</v>
       </c>
       <c r="S10">
-        <v>0.02420874201852858</v>
+        <v>0.0003105000330263697</v>
       </c>
       <c r="T10">
-        <v>0.02494735530127778</v>
+        <v>0.0003214600659906803</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,7 +1092,7 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1101,16 +1101,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>24.21940733333333</v>
+        <v>0.289655</v>
       </c>
       <c r="H11">
-        <v>72.65822199999999</v>
+        <v>0.868965</v>
       </c>
       <c r="I11">
-        <v>0.02575927905528127</v>
+        <v>0.0003130190481471841</v>
       </c>
       <c r="J11">
-        <v>0.02654519951532467</v>
+        <v>0.0003240679973299332</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -1119,28 +1119,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>0.002426333333333334</v>
+        <v>0.0003073333333333333</v>
       </c>
       <c r="N11">
-        <v>0.007279000000000001</v>
+        <v>0.000922</v>
       </c>
       <c r="O11">
-        <v>0.06019333978350575</v>
+        <v>0.008047481888801606</v>
       </c>
       <c r="P11">
-        <v>0.06019333978350575</v>
+        <v>0.008047481888801606</v>
       </c>
       <c r="Q11">
-        <v>0.05876435532644445</v>
+        <v>8.902063666666666E-05</v>
       </c>
       <c r="R11">
-        <v>0.528879197938</v>
+        <v>0.00080118573</v>
       </c>
       <c r="S11">
-        <v>0.001550537036752688</v>
+        <v>2.519015120814382E-06</v>
       </c>
       <c r="T11">
-        <v>0.00159784421404689</v>
+        <v>2.607931339252844E-06</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,22 +1157,22 @@
         <v>21</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>1.320133</v>
+        <v>0.1264026666666667</v>
       </c>
       <c r="H12">
-        <v>3.960399</v>
+        <v>0.379208</v>
       </c>
       <c r="I12">
-        <v>0.001404067154454411</v>
+        <v>0.0001365985134151518</v>
       </c>
       <c r="J12">
-        <v>0.001446905508027602</v>
+        <v>0.0001414201689728462</v>
       </c>
       <c r="K12">
         <v>1</v>
@@ -1187,22 +1187,22 @@
         <v>0.113648</v>
       </c>
       <c r="O12">
-        <v>0.9398066602164942</v>
+        <v>0.9919525181111984</v>
       </c>
       <c r="P12">
-        <v>0.9398066602164942</v>
+        <v>0.9919525181111983</v>
       </c>
       <c r="Q12">
-        <v>0.05001015839466667</v>
+        <v>0.004788470087111111</v>
       </c>
       <c r="R12">
-        <v>0.450091425552</v>
+        <v>0.043096230784</v>
       </c>
       <c r="S12">
-        <v>0.001319551663147476</v>
+        <v>0.0001354992393524061</v>
       </c>
       <c r="T12">
-        <v>0.001359811433148271</v>
+        <v>0.0001402820927243259</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,25 +1216,25 @@
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>1.320133</v>
+        <v>0.1264026666666667</v>
       </c>
       <c r="H13">
-        <v>3.960399</v>
+        <v>0.379208</v>
       </c>
       <c r="I13">
-        <v>0.001404067154454411</v>
+        <v>0.0001365985134151518</v>
       </c>
       <c r="J13">
-        <v>0.001446905508027602</v>
+        <v>0.0001414201689728462</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -1243,28 +1243,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>0.002426333333333334</v>
+        <v>0.0003073333333333333</v>
       </c>
       <c r="N13">
-        <v>0.007279000000000001</v>
+        <v>0.000922</v>
       </c>
       <c r="O13">
-        <v>0.06019333978350575</v>
+        <v>0.008047481888801606</v>
       </c>
       <c r="P13">
-        <v>0.06019333978350575</v>
+        <v>0.008047481888801606</v>
       </c>
       <c r="Q13">
-        <v>0.003203082702333334</v>
+        <v>3.884775288888889E-05</v>
       </c>
       <c r="R13">
-        <v>0.028827744321</v>
+        <v>0.000349629776</v>
       </c>
       <c r="S13">
-        <v>8.45154913069344E-05</v>
+        <v>1.099274062745657E-06</v>
       </c>
       <c r="T13">
-        <v>8.709407487933148E-05</v>
+        <v>1.138076248520243E-06</v>
       </c>
     </row>
   </sheetData>
